--- a/custom/Demo/test/sample-input-data/demo-stays.xlsx
+++ b/custom/Demo/test/sample-input-data/demo-stays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t xml:space="preserve">patient_ref</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patientCon1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mijou</t>
   </si>
 </sst>
 </file>
@@ -212,8 +221,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -357,9 +366,33 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>17199</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>44622.5833333333</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>44621.375</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/custom/Demo/test/sample-input-data/demo-stays.xlsx
+++ b/custom/Demo/test/sample-input-data/demo-stays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t xml:space="preserve">patient_ref</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mijou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8</t>
   </si>
 </sst>
 </file>
@@ -109,7 +118,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,6 +146,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,6 +213,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,13 +237,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.42"/>
@@ -289,16 +307,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>44621.375</v>
+        <v>43891.375</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>44622.5833333333</v>
+        <v>43892.5833333333</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44621.375</v>
+        <v>43891.375</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>44622.5833333333</v>
+        <v>43892.5833333333</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
@@ -324,13 +342,13 @@
         <v>19</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>44621.375</v>
+        <v>43891.375</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44622.5833333333</v>
+        <v>43892.5833333333</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44621.375</v>
+        <v>43891.375</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>3</v>
@@ -356,10 +374,10 @@
         <v>21</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>44622.5833333333</v>
+        <v>43892.5833333333</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44621.375</v>
+        <v>43891.375</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>22</v>
@@ -385,13 +403,54 @@
         <v>21</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>44622.5833333333</v>
+        <v>43892.5833333333</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>43902.5833333333</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>44621.375</v>
+        <v>43891.375</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>43902.5833333333</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>17199</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>44256.3333333333</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>44266.3333333333</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>44256.3333333333</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>44266.3333333333</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/custom/Demo/test/sample-input-data/demo-stays.xlsx
+++ b/custom/Demo/test/sample-input-data/demo-stays.xlsx
@@ -118,7 +118,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -147,11 +147,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,11 +234,11 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.42"/>

--- a/custom/Demo/test/sample-input-data/demo-stays.xlsx
+++ b/custom/Demo/test/sample-input-data/demo-stays.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t xml:space="preserve">patient_ref</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">room</t>
   </si>
   <si>
+    <t xml:space="preserve">out (devenir)</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient1</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">Réanimation</t>
   </si>
   <si>
+    <t xml:space="preserve">out</t>
+  </si>
+  <si>
     <t xml:space="preserve">patient2</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mijou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
   </si>
   <si>
     <t xml:space="preserve">urg</t>
@@ -232,13 +241,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.42"/>
@@ -281,25 +290,28 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>33117</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>43891.375</v>
@@ -316,25 +328,28 @@
       <c r="K2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="L2" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>31809</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>43891.375</v>
@@ -348,25 +363,28 @@
       <c r="K3" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="L3" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>31809</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>43892.5833333333</v>
@@ -375,27 +393,30 @@
         <v>43891.375</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>17199</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>43892.5833333333</v>
@@ -410,27 +431,30 @@
         <v>43902.5833333333</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>17199</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>44256.3333333333</v>
@@ -445,7 +469,10 @@
         <v>44266.3333333333</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
